--- a/LMS,API명세서/99단API명세서.xlsx
+++ b/LMS,API명세서/99단API명세서.xlsx
@@ -19,55 +19,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+  <x:si>
+    <x:t>{"id":1,
+"title" : "긴급 휴강 안내", 
+"content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+ "created_date" : "NOW"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>공지사항 클릭시</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 나오는 화면 </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>"등록하신</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 글이 삭제되었습니다."</x:t>
+    </x:r>
+  </x:si>
   <x:si>
     <x:t>{
-"userName":"user12",
-"password":"password",
-"email":"email",
-"realName":"name",
-"birthdate":"2025-01-01",
-"point":10,000,
-"authority":"user",
-"createdAt":"2020-01-01"
+"subject_id":1,
+"price":10000,
+"user_name":"panda"
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입이 완료되었습니다. 
-*가입 포인트 10,000점 지급 완료*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /notice_add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /notice_search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /subject/{id}</x:t>
-  </x:si>
-  <x:si>
     <x:t>{
-"userName":"user12",
-"password":"password",
-"email":"email",
-"realName":"name",
-"birthdate":"2025-01-01"
+"title":"1종 자동.1종 수동 면허",
+"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+"price":10000,
+"instructor_name":"panda"
 }</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">{"id":1,
-"title":"긴급 휴강 안내",
-"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-"created_date":"NOW"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"id":1,
-"title":"긴급 휴강 안내",
-"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-"created_date":"NOW"
-}</x:t>
+    <x:t>공지사항 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">강의 내용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발완료</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -98,33 +127,156 @@
   <x:si>
     <x:t>{
 "userName":"user12",
+"password":"password",
+"email":"email",
+"realName":"name",
+"birthdate":"2025-01-01"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"id":1,
+"title":"긴급 휴강 안내",
+"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+"created_date":"NOW"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{"id":1,
+"title":"긴급 휴강 안내",
+"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+"created_date":"NOW"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"등록하신 답글이 삭제되었습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST  /users/login </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Main 페이지 : 마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /user/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /subject/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"userName":"user12",
 "password":"password"
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>POST /user/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Main 페이지 : 마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"등록하신 답글이 삭제되었습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/board_search</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST  /users/login </x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/comment_add</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>공지사항 클릭시</x:t>
+    <x:t>{"user_name" : "pengsoo",
+"comment" : "ㅇㅇ",
+"board_id" : 1 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /users/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 검색어의 
+글을 찾지 못하였습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 사용자 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Endpoint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/commnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 답글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃이 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main 페이지 : 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 모든 답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Request Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입이 완료되었습니다. 
+*가입 포인트 10,000점 지급 완료*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존사용자 아이디와 
+패스워드로 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST  /users/register </x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 정보가 
+올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -132,12 +284,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 나오는 화면 </x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>"등록하신</x:t>
+      <x:t xml:space="preserve"> 글 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 답글</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -145,110 +297,34 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 글이 삭제되었습니다."</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"user_name" : "pengsoo",
-"comment" : "ㅇㅇ",
-"board_id" : 1 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/board_delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/comment_delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"title":"1종 자동.1종 수동 면허",
-"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-"price":10000,
-"instructor_name":"panda"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 모든 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/board_add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Request Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main 페이지 : 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃이 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST  /users/register </x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 정보가 
-올바르지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존사용자 아이디와 
-패스워드로 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 사용자 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Endpoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 정보를 조회</x:t>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 답글</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 작성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 모든</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 답글 조회</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -291,105 +367,83 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>게시판 모든</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 답글 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 글 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 답글</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 답글</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/commnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /users</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /notice_delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 검색어의 
-글을 찾지 못하였습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"id":1,
-"title" : "긴급 휴강 안내", 
-"content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
- "created_date" : "NOW"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">강의 내용 </x:t>
+    <x:t>POST /cart/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /cart/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/board/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/comment/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/board/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /notice/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/comment/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/board/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /cart/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+"userName":"user12",
+"password":"password",
+"email":"email",
+"realName":"name",
+"birthdate":"2025-01-01",
+"point":10,000,
+"authority":"user",
+"createdAt":"2020-01-01",
+"point":10000
+}
+{
+"userName":"user12",
+"password":"password",
+"email":"email",
+"realName":"name",
+"birthdate":"2025-01-01",
+"point":10,000,
+"authority":"user",
+"createdAt":"2020-01-01",
+"point":10000
+"user_authority":"ADMIN"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /notice/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /notice/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ 
+"subjectId": 1, 
+"userName": "user12" ,
+"price":10000
+ }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목 내 수강신청 버튼
+클릭시 장바구니로 이동</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -549,7 +603,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -632,7 +685,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -667,7 +719,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -712,7 +763,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -756,7 +806,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -841,7 +890,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -862,7 +910,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -893,7 +940,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1259,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H17"/>
+  <x:dimension ref="A1:H20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D12" activeCellId="0" sqref="D12:D12"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F20" activeCellId="0" sqref="B17:F20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.39999999999999857891"/>
@@ -1270,7 +1316,7 @@
     <x:col min="1" max="1" width="22.125" customWidth="1"/>
     <x:col min="2" max="2" width="20.75" customWidth="1"/>
     <x:col min="3" max="3" width="24.16796875" customWidth="1"/>
-    <x:col min="4" max="4" width="23.16796875" customWidth="1"/>
+    <x:col min="4" max="4" width="26.83203125" customWidth="1"/>
     <x:col min="5" max="5" width="68.41796875" customWidth="1"/>
     <x:col min="6" max="6" width="80.375" customWidth="1"/>
     <x:col min="7" max="7" width="22.125" customWidth="1"/>
@@ -1279,220 +1325,220 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>46</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>42</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H2" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E3" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G3" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H3" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="5"/>
       <x:c r="F4" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8" ht="272.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F5" s="9" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G5" s="5" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H5" s="6" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D5" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F5" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="5" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="H5" s="6" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A6" s="7"/>
       <x:c r="B6" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>57</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D6" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F6" s="9" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F6" s="9" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="G6" s="5"/>
       <x:c r="H6" s="6"/>
     </x:row>
     <x:row r="7" spans="2:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="B7" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="5"/>
       <x:c r="H7" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:7" ht="133.34999999999999431566" customHeight="1">
       <x:c r="B8" t="s">
-        <x:v>55</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>2</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G8" s="5"/>
     </x:row>
     <x:row r="9" spans="2:6" ht="133.34999999999999431566" customHeight="1">
       <x:c r="B9" t="s">
-        <x:v>56</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>69</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:7" ht="133.34999999999999431566" customHeight="1">
       <x:c r="B10" t="s">
-        <x:v>71</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>3</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F10" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="12" t="s">
-        <x:v>68</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5" s="11" customFormat="1" ht="139.5" customHeight="1">
       <x:c r="B11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:6" s="11" customFormat="1" ht="114.75" customHeight="1">
@@ -1500,27 +1546,27 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:6" s="11" customFormat="1" ht="135" customHeight="1">
       <x:c r="B13" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:7" s="11" customFormat="1" ht="120.75" customHeight="1">
@@ -1528,16 +1574,16 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G14" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:6" s="11" customFormat="1" ht="105.75" customHeight="1">
@@ -1548,49 +1594,91 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:7" s="11" customFormat="1" ht="141.75" customHeight="1">
       <x:c r="B16" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G16" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:7" s="11" customFormat="1" ht="129.75" customHeight="1">
       <x:c r="B17" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G17" s="9" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="19" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="20" ht="133.34999999999999431566" customHeight="1"/>
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:6" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B18" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C18" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F18" s="12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:7" s="11" customFormat="1" ht="102" customHeight="1">
+      <x:c r="B19" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D19" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G19" s="9" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:6" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B20" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C20" s="11" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
     <x:row r="21" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="22" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="23" ht="133.34999999999999431566" customHeight="1"/>
@@ -1609,6 +1697,7 @@
     <x:row r="36" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="37" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="38" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="39" ht="133.34999999999999431566" customHeight="1"/>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967292" verticalDpi="600" copies="1"/>

--- a/LMS,API명세서/99단API명세서.xlsx
+++ b/LMS,API명세서/99단API명세서.xlsx
@@ -19,126 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
-  <x:si>
-    <x:t>{"id":1,
-"title" : "긴급 휴강 안내", 
-"content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
- "created_date" : "NOW"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>공지사항 클릭시</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 나오는 화면 </x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>"등록하신</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 글이 삭제되었습니다."</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>{
-"subject_id":1,
-"price":10000,
-"user_name":"panda"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"title":"1종 자동.1종 수동 면허",
-"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-"price":10000,
-"instructor_name":"panda"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">강의 내용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발완료</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>{"board_id" : 1,
-"</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>title" : "질문",
-"content" : "질문있습니다",
-"user_name" : "pengsoo",
-"created_date" : "등록한 시간",
-"modified_date" : "수정한 시간"}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>{"board_id" : 1,
-"title" : "질문",
-"content" : "질문있습니다",
-"user_name" : "pengsoo",
-"created_date" : "등록한 시간",
-"modified_date" : "수정한 시간"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"userName":"user12",
-"password":"password",
-"email":"email",
-"realName":"name",
-"birthdate":"2025-01-01"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"id":1,
-"title":"긴급 휴강 안내",
-"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-"created_date":"NOW"
-}</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
+  <x:si>
+    <x:t>강의 기능</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">{"id":1,
@@ -149,258 +32,11 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>"등록하신 답글이 삭제되었습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST  /users/login </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Main 페이지 : 마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /user/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /subject/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"userName":"user12",
-"password":"password"
+    <x:t>{"id":1,
+"title":"긴급 휴강 안내",
+"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+"created_date":"NOW"
 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"user_name" : "pengsoo",
-"comment" : "ㅇㅇ",
-"board_id" : 1 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /users/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 검색어의 
-글을 찾지 못하였습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 사용자 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Endpoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/commnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃이 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main 페이지 : 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 모든 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Request Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입이 완료되었습니다. 
-*가입 포인트 10,000점 지급 완료*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존사용자 아이디와 
-패스워드로 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST  /users/register </x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 정보가 
-올바르지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 글 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 답글</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 답글</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 모든</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 답글 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>M</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ain 페이지 :회원가입</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Main 페이지 :</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 로그인</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 클릭시</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 나오는
-화면</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>POST /cart/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /cart/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/board/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/comment/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/board/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /notice/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/comment/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/board/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /cart/delete/{id}</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">{
@@ -429,10 +65,20 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>GET /notice/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /notice/add</x:t>
+    <x:t>{"id":1,
+"title" : "긴급 휴강 안내", 
+"content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+ "created_date" : "NOW"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"userName":"user12",
+"password":"password",
+"email":"email",
+"realName":"name",
+"birthdate":"2025-01-01"
+}</x:t>
   </x:si>
   <x:si>
     <x:t>{ 
@@ -442,8 +88,443 @@
  }</x:t>
   </x:si>
   <x:si>
+    <x:t>게시판 답글기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /cart/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/board/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃이 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Request Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"user_name" : "pengsoo",
+"comment" : "ㅇㅇ",
+"board_id" : 1 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"subject_id":1,
+"price":10000,
+"user_name":"panda"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /notice/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/comment/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /cart/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/board/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 검색어의 
+글을 찾지 못하였습니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>과목 내 수강신청 버튼
 클릭시 장바구니로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"board_id" : 1,
+"title" : "질문",
+"content" : "질문있습니다",
+"user_name" : "pengsoo",
+"created_date" : "등록한 시간",
+"modified_date" : "수정한 시간"}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>{"board_id" : 1,
+"</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>title" : "질문",
+"content" : "질문있습니다",
+"user_name" : "pengsoo",
+"created_date" : "등록한 시간",
+"modified_date" : "수정한 시간"}</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>게시판 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Endpoint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 사용자 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"title":"1종 자동.1종 수동 면허",
+"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+"price":10000,
+"instructor_name":"panda"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"title":"1종 자동.1종 수동 면허",
+"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+"price":5000,
+"instructor_name":"eddie"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"userName":"user12",
+"password":"password"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"등록하신 답글이 삭제되었습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /subject/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST  /users/login </x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /user/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /notice/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/comment/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/board/search</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>"등록하신</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 글이 삭제되었습니다."</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>GET /notice/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저별로 장바구니에 담은 
+목록을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">강의 내용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입이 완료되었습니다. 
+*가입 포인트 10,000점 지급 완료*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/commnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /users/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 정보가 
+올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST  /users/register </x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존사용자 아이디와 
+패스워드로 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /cart/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 글 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 모든</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 답글 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 클릭시</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 나오는
+화면</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>사용자 패스워드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 변경</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>본인의 패스워드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 변경</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 답글</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 답글</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 작성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 있는 목록을
+ 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /subject/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 해당 USER가 
+존재하지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /subject/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항에 글을 등록하는기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 게시글을 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 공지사항을 
+보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 정보가 올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목을 찾을 수 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패스워드가 변경되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용이 수정되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 공지사항을 
+삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 게시글을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글의 답글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 게시글의 달린 답글을 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글에 달린 모든 답글을 조회하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ "password": "newPassword123" }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT/user/update/password/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"사용자를 찾을 수 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 내용을 삭제</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -522,7 +603,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -592,6 +673,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="3">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -603,6 +687,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -685,6 +770,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -719,6 +805,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -763,6 +850,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -806,6 +894,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -890,6 +979,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -910,6 +1000,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -940,6 +1031,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1305,17 +1397,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H20"/>
+  <x:dimension ref="A1:H23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F20" activeCellId="0" sqref="B17:F20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G10" activeCellId="0" sqref="G10:G10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="22.125" customWidth="1"/>
     <x:col min="2" max="2" width="20.75" customWidth="1"/>
-    <x:col min="3" max="3" width="24.16796875" customWidth="1"/>
+    <x:col min="3" max="3" width="26" customWidth="1"/>
     <x:col min="4" max="4" width="26.83203125" customWidth="1"/>
     <x:col min="5" max="5" width="68.41796875" customWidth="1"/>
     <x:col min="6" max="6" width="80.375" customWidth="1"/>
@@ -1325,363 +1417,456 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H2" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="A3" s="7" t="s">
+      <x:c r="A3" s="7"/>
+      <x:c r="B3" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H3" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E3" s="5" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G3" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H3" s="6" t="s">
-        <x:v>48</x:v>
-      </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="A4" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="A4" s="7"/>
       <x:c r="B4" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>23</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E4" s="5"/>
       <x:c r="F4" t="s">
-        <x:v>44</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" ht="272.5" customHeight="1">
-      <x:c r="A5" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="A5" s="7"/>
       <x:c r="B5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>28</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F5" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G5" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" ht="187" customHeight="1">
       <x:c r="A6" s="7"/>
       <x:c r="B6" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D6" s="7" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E6" s="7" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F6" s="11" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H6" s="6"/>
+    </x:row>
+    <x:row r="7" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A7" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F7" s="9" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H7" s="6"/>
+    </x:row>
+    <x:row r="8" spans="1:8" ht="172.5" customHeight="1">
+      <x:c r="A8" s="7"/>
+      <x:c r="B8" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E8" s="12" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F8" s="13" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G8" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H8" s="6"/>
+    </x:row>
+    <x:row r="9" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A9" s="7"/>
+      <x:c r="B9" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G9" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H9" s="6"/>
+    </x:row>
+    <x:row r="10" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A10" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C10" s="8" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D10" s="7" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F6" s="9" t="s">
+      <x:c r="F10" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G6" s="5"/>
-      <x:c r="H6" s="6"/>
-    </x:row>
-    <x:row r="7" spans="2:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B7" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C7" s="8" t="s">
+      <x:c r="G10" s="5"/>
+      <x:c r="H10" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:7" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B11" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C11" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E11" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D7" s="7" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G7" s="5"/>
-      <x:c r="H7" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:7" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B8" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C8" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D8" t="s">
+      <x:c r="G11" s="5" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:7" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B12" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C12" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G12" s="12" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:7" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B13" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C13" s="13" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F13" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G13" s="12" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7" s="11" customFormat="1" ht="139.5" customHeight="1">
+      <x:c r="A14" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D14" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G14" s="13" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:7" s="11" customFormat="1" ht="114.75" customHeight="1">
+      <x:c r="B15" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D15" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F15" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G15" s="13" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:7" s="11" customFormat="1" ht="135" customHeight="1">
+      <x:c r="B16" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D16" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G16" s="13" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7" s="11" customFormat="1" ht="120.75" customHeight="1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D17" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G17" s="9" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:7" s="11" customFormat="1" ht="105.75" customHeight="1">
+      <x:c r="B18" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="E8" s="12" t="s">
+      <x:c r="C18" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D18" s="7" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G8" s="5"/>
-    </x:row>
-    <x:row r="9" spans="2:6" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B9" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C9" s="11" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D9" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F9" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:7" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B10" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C10" s="11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F10" s="12" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G10" s="12" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:5" s="11" customFormat="1" ht="139.5" customHeight="1">
-      <x:c r="B11" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D11" s="7" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E11" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="2:6" s="11" customFormat="1" ht="114.75" customHeight="1">
-      <x:c r="B12" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D12" s="7" t="s">
+      <x:c r="F18" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G18" s="13" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:7" s="11" customFormat="1" ht="141.75" customHeight="1">
+      <x:c r="B19" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F12" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:6" s="11" customFormat="1" ht="135" customHeight="1">
-      <x:c r="B13" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D13" s="7" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:7" s="11" customFormat="1" ht="120.75" customHeight="1">
-      <x:c r="B14" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D14" s="7" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E14" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G14" s="9" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:6" s="11" customFormat="1" ht="105.75" customHeight="1">
-      <x:c r="B15" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D15" s="7" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F15" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:7" s="11" customFormat="1" ht="141.75" customHeight="1">
-      <x:c r="B16" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D16" s="7" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G16" s="9" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:7" s="11" customFormat="1" ht="129.75" customHeight="1">
-      <x:c r="B17" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D17" s="7" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G17" s="9" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:6" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B18" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C18" s="11" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D18" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F18" s="12" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:7" s="11" customFormat="1" ht="102" customHeight="1">
-      <x:c r="B19" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G19" s="9" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:6" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B20" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C20" s="11" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D20" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="F20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="22" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="23" ht="133.34999999999999431566" customHeight="1"/>
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:7" s="11" customFormat="1" ht="129.75" customHeight="1">
+      <x:c r="B20" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D20" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G20" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A21" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C21" s="13" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F21" s="12" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G21" s="9" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:7" s="11" customFormat="1" ht="102" customHeight="1">
+      <x:c r="B22" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D22" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G22" s="9" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:7" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B23" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C23" s="13" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D23" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F23" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G23" s="9" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
     <x:row r="24" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="25" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="26" ht="133.34999999999999431566" customHeight="1"/>
@@ -1698,6 +1883,9 @@
     <x:row r="37" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="38" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="39" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="40" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="41" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="42" ht="133.34999999999999431566" customHeight="1"/>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967292" verticalDpi="600" copies="1"/>

--- a/LMS,API명세서/99단API명세서.xlsx
+++ b/LMS,API명세서/99단API명세서.xlsx
@@ -19,9 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
-  <x:si>
-    <x:t>강의 기능</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+  <x:si>
+    <x:t>{"id":1,
+"title":"긴급 휴강 안내",
+"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+"created_date":"NOW"
+}</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">{"id":1,
@@ -32,119 +36,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>{"id":1,
-"title":"긴급 휴강 안내",
-"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-"created_date":"NOW"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-"userName":"user12",
-"password":"password",
-"email":"email",
-"realName":"name",
-"birthdate":"2025-01-01",
-"point":10,000,
-"authority":"user",
-"createdAt":"2020-01-01",
-"point":10000
-}
-{
-"userName":"user12",
-"password":"password",
-"email":"email",
-"realName":"name",
-"birthdate":"2025-01-01",
-"point":10,000,
-"authority":"user",
-"createdAt":"2020-01-01",
-"point":10000
-"user_authority":"ADMIN"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"id":1,
-"title" : "긴급 휴강 안내", 
-"content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
- "created_date" : "NOW"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"userName":"user12",
-"password":"password",
-"email":"email",
-"realName":"name",
-"birthdate":"2025-01-01"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{ 
-"subjectId": 1, 
-"userName": "user12" ,
-"price":10000
- }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /cart/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/board/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃이 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Request Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"user_name" : "pengsoo",
-"comment" : "ㅇㅇ",
-"board_id" : 1 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"subject_id":1,
-"price":10000,
-"user_name":"panda"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /notice/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/comment/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /cart/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/board/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 검색어의 
-글을 찾지 못하였습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목 내 수강신청 버튼
-클릭시 장바구니로 이동</x:t>
+    <x:t>강의 영상 재생</x:t>
   </x:si>
   <x:si>
     <x:t>{"board_id" : 1,
@@ -173,78 +65,24 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>게시판 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Endpoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 사용자 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"title":"1종 자동.1종 수동 면허",
-"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-"price":10000,
-"instructor_name":"panda"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"title":"1종 자동.1종 수동 면허",
-"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-"price":5000,
-"instructor_name":"eddie"
-}</x:t>
-  </x:si>
-  <x:si>
     <x:t>{
 "userName":"user12",
-"password":"password"
+"password":"password",
+"email":"email",
+"realName":"name",
+"birthdate":"2025-01-01"
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>"등록하신 답글이 삭제되었습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /subject/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST  /users/login </x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /user/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /notice/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/comment/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/board/search</x:t>
+    <x:t>{"id":1,
+"title" : "긴급 휴강 안내", 
+"content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+ "created_date" : "NOW"
+}</x:t>
   </x:si>
   <x:si>
     <x:r>
-      <x:t>"등록하신</x:t>
+      <x:t>사용자 패스워드</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -252,99 +90,108 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 글이 삭제되었습니다."</x:t>
+      <x:t xml:space="preserve"> 변경</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>GET /notice/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저별로 장바구니에 담은 
-목록을 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">강의 내용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
+    <x:r>
+      <x:t>본인의 패스워드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 변경</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:t>회원가입이 완료되었습니다. 
 *가입 포인트 10,000점 지급 완료*</x:t>
   </x:si>
   <x:si>
-    <x:t>GET/commnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /users/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 정보가 
-올바르지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST  /users/register </x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존사용자 아이디와 
-패스워드로 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /cart/{user_name}</x:t>
+    <x:t>{
+"image_url":"image_url1",
+"subject_id":1
+{
+"title":"1종 자동.1종 수동 면허"
+}
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 정보가 올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 공지사항을 
+삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 게시글을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"사용자를 찾을 수 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목을 찾을 수 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /notice/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 공지사항을 
+보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글의 답글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /cart/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/board/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ "password": "newPassword123" }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ 
+"subjectId": 1, 
+"userName": "user12" ,
+"price":10000
+ }</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 답글</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 작성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 답글</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -358,6 +205,191 @@
       </x:rPr>
       <x:t xml:space="preserve"> 글 삭제</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 검색어의 
+글을 찾지 못하였습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저별로 장바구니에 담은 
+목록을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /subject/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /cart/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /notice/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 해당 USER가 
+존재하지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목 내 수강신청 버튼
+클릭시 장바구니로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/comment/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /subject/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/board/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"userName":"user12",
+"password":"password"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /user/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/comment/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/board/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /subject/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST  /users/login </x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /notice/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"등록하신 답글이 삭제되었습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/commnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 사용자 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 내용을 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용이 수정되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃이 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Request Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항에 글을 등록하는기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 게시글을 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패스워드가 변경되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"user_name" : "pengsoo",
+"comment" : "ㅇㅇ",
+"board_id" : 1 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"subject_id":1,
+"price":10000,
+"user_name":"panda"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT/user/update/password/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"title":"1종 자동.1종 수동 면허",
+"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+"price":10000,
+"instructor_name":"panda",
+"subject_type":[
+  {
+   "subject_id":1,
+   " type_id":...
+       [
+       {"name":"승용차" 등등....
+       }
+       ],
+ "image_id":1
+   {
+   "image_url" : "image_url"
+    }
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url1",
+"subject_id":1
+{
+"title":"1종 자동.1종 수동 면허"
+}
+}
+</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -387,8 +419,68 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>강의 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">강의 내용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의내용 수정</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>사용자 패스워드</x:t>
+      <x:t>"등록하신</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -396,108 +488,22 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 변경</x:t>
+      <x:t xml:space="preserve"> 글이 삭제되었습니다."</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>본인의 패스워드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 변경</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 답글</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 답글</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 기능</x:t>
+    <x:t xml:space="preserve">POST  /users/register </x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존사용자 아이디와 
+패스워드로 로그인</x:t>
   </x:si>
   <x:si>
     <x:t>장바구니에 있는 목록을
  삭제하는 기능</x:t>
   </x:si>
   <x:si>
-    <x:t>PUT /subject/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 해당 USER가 
-존재하지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /subject/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항에 글을 등록하는기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 게시글을 삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색한 공지사항을 
-보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 정보가 올바르지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목을 찾을 수 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패스워드가 변경되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 내용이 수정되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 공지사항을 
-삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 글을 등록하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색한 게시글을 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글의 답글을 등록하는 기능</x:t>
+    <x:t>GET /cart/{user_name}</x:t>
   </x:si>
   <x:si>
     <x:t>해당 게시글의 달린 답글을 삭제하는 기능</x:t>
@@ -506,25 +512,96 @@
     <x:t>게시글에 달린 모든 답글을 조회하는 기능</x:t>
   </x:si>
   <x:si>
-    <x:t>{ "password": "newPassword123" }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT/user/update/password/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"사용자를 찾을 수 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 강의 내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 강의 내용을 삭제</x:t>
+    <x:t>입력하신 정보가 
+올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /users/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 답글기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Endpoint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 강의영상을 재생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /video/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 이미지주소  삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동영상 재생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 이미지주소 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 영상을 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">해당 강의 영상을 삭제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /video/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /image/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 강의 영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /video/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url",
+"subject_id":1
+    {
+    "title":"1종 자동.1종 수동 면허"
+     }
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+"userName":"user12",
+"password":"password",
+"email":"email",
+"realName":"name",
+"birthdate":"2025-01-01",
+"point":10,000,
+"authority":"user",
+"createdAt":"2020-01-01",
+"point":10000
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정이 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /image/delete/{id}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -603,7 +680,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -654,19 +731,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -687,7 +751,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -770,7 +833,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -805,7 +867,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -850,7 +911,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -894,7 +954,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -979,7 +1038,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1000,7 +1058,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1031,7 +1088,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1397,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H23"/>
+  <x:dimension ref="A1:H33"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G10" activeCellId="0" sqref="G10:G10"/>
+    <x:sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E28" activeCellId="0" sqref="E28:E28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.39999999999999857891"/>
@@ -1417,466 +1473,630 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>32</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>72</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H2" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A3" s="7"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E3" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>15</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G3" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H3" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A4" s="7"/>
       <x:c r="B4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="D4" t="s">
-        <x:v>41</x:v>
       </x:c>
       <x:c r="E4" s="5"/>
       <x:c r="F4" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" ht="272.5" customHeight="1">
       <x:c r="A5" s="7"/>
       <x:c r="B5" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>31</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>70</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F5" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G5" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" ht="187" customHeight="1">
       <x:c r="A6" s="7"/>
       <x:c r="B6" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D6" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E6" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F6" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H6" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" ht="234.5" customHeight="1">
+      <x:c r="A7" s="7" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D6" s="7" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E6" s="7" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F6" s="11" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="G6" s="7" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="H6" s="6"/>
-    </x:row>
-    <x:row r="7" spans="1:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="A7" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>96</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F7" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="H7" s="6"/>
-    </x:row>
-    <x:row r="8" spans="1:8" ht="172.5" customHeight="1">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" ht="205" customHeight="1">
       <x:c r="A8" s="7"/>
       <x:c r="B8" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E8" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F8" s="12" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G8" s="5" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="C8" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D8" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E8" s="12" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F8" s="13" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G8" s="5" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H8" s="6"/>
+      <x:c r="H8" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A9" s="7"/>
       <x:c r="B9" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>109</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>87</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H9" s="6"/>
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H9" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A10" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D10" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G10" s="5"/>
+      <x:c r="H10" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C11" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E11" s="11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G11" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H11" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B12" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C12" s="12" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G12" s="11" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H12" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B13" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C13" s="12" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="11" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G13" s="11" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H13" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8" s="10" customFormat="1" ht="139.5" customHeight="1">
+      <x:c r="A14" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D14" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G14" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H14" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:8" s="10" customFormat="1" ht="114.75" customHeight="1">
+      <x:c r="B15" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D15" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F15" s="7" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G15" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H15" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:8" s="10" customFormat="1" ht="135" customHeight="1">
+      <x:c r="B16" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D16" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G16" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H16" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8" s="10" customFormat="1" ht="120.75" customHeight="1">
+      <x:c r="A17" s="10" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D17" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G17" s="9" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H17" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:8" s="10" customFormat="1" ht="105.75" customHeight="1">
+      <x:c r="B18" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D18" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F18" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G18" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H18" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:8" s="10" customFormat="1" ht="141.75" customHeight="1">
+      <x:c r="B19" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D19" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G19" s="9" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H19" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:8" s="10" customFormat="1" ht="129.75" customHeight="1">
+      <x:c r="B20" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D20" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G20" s="12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H20" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A21" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C21" s="12" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F21" s="11" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G21" s="9" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H21" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:8" s="10" customFormat="1" ht="102" customHeight="1">
+      <x:c r="B22" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D10" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G10" s="5"/>
-      <x:c r="H10" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:7" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B11" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C11" s="11" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D11" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E11" s="12" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G11" s="5" t="s">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="2:7" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B12" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C12" s="13" t="s">
+      <x:c r="C22" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D22" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G22" s="9" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H22" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B23" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D12" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F12" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G12" s="12" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:7" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B13" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C13" s="13" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F13" s="12" t="s">
+      <x:c r="C23" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D23" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F23" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G23" s="9" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H23" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A24" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B24" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G13" s="12" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7" s="11" customFormat="1" ht="139.5" customHeight="1">
-      <x:c r="A14" s="11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D14" s="7" t="s">
+      <x:c r="C24" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D24" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F24" s="11" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G24" s="11" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H24" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B25" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C25" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D25" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F25" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G25" s="11" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H25" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B26" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C26" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D26" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E26" s="12" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F26" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G26" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H26" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A27" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B27" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D27" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F27" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G27" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H27" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B28" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D28" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E28" s="11" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E14" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G14" s="13" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:7" s="11" customFormat="1" ht="114.75" customHeight="1">
-      <x:c r="B15" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D15" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F15" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G15" s="13" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:7" s="11" customFormat="1" ht="135" customHeight="1">
-      <x:c r="B16" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D16" s="7" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G16" s="13" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:7" s="11" customFormat="1" ht="120.75" customHeight="1">
-      <x:c r="A17" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D17" s="7" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E17" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G17" s="9" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:7" s="11" customFormat="1" ht="105.75" customHeight="1">
-      <x:c r="B18" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D18" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F18" s="7" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G18" s="13" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:7" s="11" customFormat="1" ht="141.75" customHeight="1">
-      <x:c r="B19" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D19" s="7" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G19" s="9" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:7" s="11" customFormat="1" ht="129.75" customHeight="1">
-      <x:c r="B20" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D20" s="7" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G20" s="13" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:7" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="A21" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B21" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C21" s="13" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D21" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F21" s="12" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G21" s="9" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="2:7" s="11" customFormat="1" ht="102" customHeight="1">
-      <x:c r="B22" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D22" s="7" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G22" s="9" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:7" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B23" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C23" s="13" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D23" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F23" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G23" s="9" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="25" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="26" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="27" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="28" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="29" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="30" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="31" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="32" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="33" ht="133.34999999999999431566" customHeight="1"/>
+      <x:c r="F28" s="10" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G28" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H28" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H29" s="6"/>
+    </x:row>
+    <x:row r="30" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H30" s="6"/>
+    </x:row>
+    <x:row r="31" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H31" s="6"/>
+    </x:row>
+    <x:row r="32" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H32" s="6"/>
+    </x:row>
+    <x:row r="33" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H33" s="6"/>
+    </x:row>
     <x:row r="34" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="35" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="36" ht="133.34999999999999431566" customHeight="1"/>

--- a/LMS,API명세서/99단API명세서.xlsx
+++ b/LMS,API명세서/99단API명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <x:si>
     <x:t>{"id":1,
 "title":"긴급 휴강 안내",
@@ -34,6 +34,12 @@
 "created_date":"NOW"
 }
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판  답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 영상 등록</x:t>
   </x:si>
   <x:si>
     <x:t>강의 영상 재생</x:t>
@@ -161,13 +167,6 @@
     <x:t>{ "password": "newPassword123" }</x:t>
   </x:si>
   <x:si>
-    <x:t>{ 
-"subjectId": 1, 
-"userName": "user12" ,
-"price":10000
- }</x:t>
-  </x:si>
-  <x:si>
     <x:r>
       <x:t>게시판 답글</x:t>
     </x:r>
@@ -339,13 +338,6 @@
 "board_id" : 1 }</x:t>
   </x:si>
   <x:si>
-    <x:t>{
-"subject_id":1,
-"price":10000,
-"user_name":"panda"
-}</x:t>
-  </x:si>
-  <x:si>
     <x:t>PUT/user/update/password/{id}</x:t>
   </x:si>
   <x:si>
@@ -359,6 +351,9 @@
   </x:si>
   <x:si>
     <x:t>강의 영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목별 강의 영상 등록</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -393,19 +388,6 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>게시판 모든</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 답글 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
       <x:t>게시판 클릭시</x:t>
     </x:r>
     <x:r>
@@ -419,6 +401,9 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>GET /notice/all</x:t>
+  </x:si>
+  <x:si>
     <x:t>강의 기능</x:t>
   </x:si>
   <x:si>
@@ -447,9 +432,6 @@
   </x:si>
   <x:si>
     <x:t>장바구니 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 기능</x:t>
   </x:si>
   <x:si>
     <x:t>개발완료</x:t>
@@ -509,9 +491,6 @@
     <x:t>해당 게시글의 달린 답글을 삭제하는 기능</x:t>
   </x:si>
   <x:si>
-    <x:t>게시글에 달린 모든 답글을 조회하는 기능</x:t>
-  </x:si>
-  <x:si>
     <x:t>입력하신 정보가 
 올바르지 않습니다.</x:t>
   </x:si>
@@ -537,6 +516,9 @@
     <x:t>DELETE /video/delete/{id}</x:t>
   </x:si>
   <x:si>
+    <x:t>게시판의 답글을 모두 조회</x:t>
+  </x:si>
+  <x:si>
     <x:t>해당 이미지주소  삭제</x:t>
   </x:si>
   <x:si>
@@ -546,13 +528,41 @@
     <x:t>해당 이미지주소 수정</x:t>
   </x:si>
   <x:si>
+    <x:t>게시글에  답글을 조회하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 달린 댓글을 모두 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /comment/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올린 공지사항의 전체를 조회</x:t>
+  </x:si>
+  <x:si>
     <x:t>이미지 내용 수정</x:t>
   </x:si>
   <x:si>
     <x:t>강의 영상을 삭제</x:t>
   </x:si>
   <x:si>
+    <x:t>공지사항 전체를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /video/add</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">해당 강의 영상을 삭제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url",
+"subject_id":1
+    {
+    "title":"1종 자동.1종 수동 면허"
+     }
+}</x:t>
   </x:si>
   <x:si>
     <x:t>이미지</x:t>
@@ -581,7 +591,48 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>GET /board/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+{
+"subject_id" : 1
+  {
+"price":10000
+   },
+"user_name": "totoro"
+},
+{
+"subject_id" :2  
+  {
+  "price":10000
+   },
+"user_name": "totoro"
+}
+]</x:t>
+  </x:si>
+  <x:si>
     <x:t>이미지 내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+{
+"board_id" : 1,
+"title" : "질문",
+"content" : "질문있습니다",
+"user_name" : "pengsoo",
+"created_date" : "등록한 시간",
+"modified_date" : "수정한 시간"
+},
+{
+"board_id" : 2,
+"title" : "질문",
+"content" : "질문있습니다",
+"user_name" : "fourbie",
+"created_date" : "등록한 시간",
+"modified_date" : "수정한 시간"
+}
+]</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">{
@@ -602,6 +653,44 @@
   </x:si>
   <x:si>
     <x:t>DELETE /image/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+[
+{
+"id":1,
+"title" : "긴급 휴강 안내", 
+"content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+ "created_date" : "NOW"
+},
+{
+"id":2,
+"title" : "새해맞이 이벤트 안내", 
+"content": "새해를 맞아 학업에 지친 수강생님들을 위해 조식 떡국 제공 이벤트를 진행 합니다.",
+ "created_date" : "NOW"
+}
+]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올린 게시판의 모든 글을 조회 하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+{
+"user_name" : "pengsoo",
+"comment" : "ㅇㅇ",
+"board_id" : 1 
+},
+{
+"user_name" :" totoro"
+"comment" : "ㄴㄴ",
+"board_id" : 1 
+}
+]</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1453,10 +1542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H33"/>
+  <x:dimension ref="A1:H37"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E28" activeCellId="0" sqref="E28:E28"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E5" activeCellId="0" sqref="E5:E5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.39999999999999857891"/>
@@ -1473,25 +1562,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>111</x:v>
-      </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
         <x:v>90</x:v>
@@ -1499,28 +1588,28 @@
     </x:row>
     <x:row r="2" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H2" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" ht="133.34999999999999431566" customHeight="1">
@@ -1532,107 +1621,107 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E3" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G3" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H3" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A4" s="7"/>
       <x:c r="B4" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E4" s="5"/>
       <x:c r="F4" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" ht="272.5" customHeight="1">
       <x:c r="A5" s="7"/>
       <x:c r="B5" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C5" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F5" s="9" t="s">
-        <x:v>127</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G5" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" ht="187" customHeight="1">
       <x:c r="A6" s="7"/>
       <x:c r="B6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" ht="234.5" customHeight="1">
       <x:c r="A7" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F7" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" ht="205" customHeight="1">
@@ -1644,468 +1733,526 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F8" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="A9" s="7"/>
       <x:c r="B9" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H9" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="A10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" s="10" customFormat="1" ht="272.5" customHeight="1">
+      <x:c r="A10" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D10" s="7" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="G10" s="5"/>
+      <x:c r="H10" s="6"/>
+    </x:row>
+    <x:row r="11" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B11" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C10" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D10" s="7" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G10" s="5"/>
-      <x:c r="H10" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B11" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D11" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E11" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G11" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="C11" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G11" s="5"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="B12" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C12" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C12" s="10" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F12" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G12" s="11" t="s">
-        <x:v>106</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E12" s="11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G12" s="5" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H12" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="B13" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C13" s="12" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G13" s="11" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H13" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B14" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C13" s="12" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F13" s="11" t="s">
+      <x:c r="C14" s="12" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F14" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G13" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H13" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8" s="10" customFormat="1" ht="139.5" customHeight="1">
-      <x:c r="A14" s="10" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D14" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E14" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G14" s="12" t="s">
-        <x:v>106</x:v>
+      <x:c r="G14" s="11" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H14" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:8" s="10" customFormat="1" ht="114.75" customHeight="1">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8" s="10" customFormat="1" ht="272.5" customHeight="1">
+      <x:c r="A15" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D15" s="7" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F15" s="7" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="G15" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H15" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="G15" s="12"/>
+      <x:c r="H15" s="6"/>
     </x:row>
     <x:row r="16" spans="2:8" s="10" customFormat="1" ht="135" customHeight="1">
       <x:c r="B16" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G16" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H16" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:8" s="10" customFormat="1" ht="120.75" customHeight="1">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8" s="10" customFormat="1" ht="139.5" customHeight="1">
       <x:c r="A17" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G17" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G17" s="12" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H17" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:8" s="10" customFormat="1" ht="105.75" customHeight="1">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:8" s="10" customFormat="1" ht="114.75" customHeight="1">
       <x:c r="B18" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D18" s="7" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F18" s="7" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G18" s="12" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H18" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8" s="10" customFormat="1" ht="272.5" customHeight="1">
+      <x:c r="A19" s="10" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="G19" s="12"/>
+      <x:c r="H19" s="6"/>
+    </x:row>
+    <x:row r="20" spans="2:8" s="10" customFormat="1" ht="135" customHeight="1">
+      <x:c r="B20" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D20" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G20" s="12"/>
+      <x:c r="H20" s="6"/>
+    </x:row>
+    <x:row r="21" spans="2:8" s="10" customFormat="1" ht="120.75" customHeight="1">
+      <x:c r="B21" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="C21" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D21" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E21" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G21" s="9" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H21" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:8" s="10" customFormat="1" ht="105.75" customHeight="1">
+      <x:c r="B22" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D18" s="7" t="s">
+      <x:c r="D22" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F22" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G22" s="12" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H22" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:8" s="10" customFormat="1" ht="129.75" customHeight="1">
+      <x:c r="B23" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D23" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G23" s="12" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H23" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:8" ht="272.5" customHeight="1">
+      <x:c r="B24" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C24" s="12" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D24" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F24" s="11" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G24" s="9" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H24" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:8" s="10" customFormat="1" ht="102" customHeight="1">
+      <x:c r="B25" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F18" s="7" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G18" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H18" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:8" s="10" customFormat="1" ht="141.75" customHeight="1">
-      <x:c r="B19" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D25" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F25" s="2"/>
+      <x:c r="G25" s="9" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D19" s="7" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G19" s="9" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H19" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:8" s="10" customFormat="1" ht="129.75" customHeight="1">
-      <x:c r="B20" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D20" s="7" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G20" s="12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H20" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="A21" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B21" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C21" s="12" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D21" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F21" s="11" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G21" s="9" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H21" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="2:8" s="10" customFormat="1" ht="102" customHeight="1">
-      <x:c r="B22" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D22" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G22" s="9" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H22" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B23" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C23" s="12" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D23" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F23" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G23" s="9" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H23" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="A24" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="B24" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C24" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D24" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F24" s="11" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="G24" s="11" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H24" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="2:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="B25" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C25" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D25" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="F25" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G25" s="11" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="H25" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="B26" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C26" t="s">
-        <x:v>123</x:v>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C26" s="12" t="s">
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D26" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F26" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G26" s="9" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H26" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A27" s="10" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C27" s="12" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D27" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="E26" s="12" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F26" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="G26" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H26" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="A27" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="B27" t="s">
+      <x:c r="E27" s="11" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="C27" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D27" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F27" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G27" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H27" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
+      <x:c r="G27" s="9"/>
+      <x:c r="H27" s="6"/>
     </x:row>
     <x:row r="28" spans="2:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="B28" t="s">
-        <x:v>117</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C28" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D28" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F28" s="11" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="G28" s="11" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H28" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B29" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C29" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D29" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F29" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G29" s="11" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H29" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B30" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C30" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D30" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E30" s="12" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F30" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="G30" s="12" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H30" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="A31" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B31" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D31" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F31" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G31" s="12" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H31" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="B32" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C32" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D28" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E28" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F28" s="10" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="G28" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H28" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="8:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="H29" s="6"/>
-    </x:row>
-    <x:row r="30" spans="8:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="H30" s="6"/>
-    </x:row>
-    <x:row r="31" spans="8:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="H31" s="6"/>
-    </x:row>
-    <x:row r="32" spans="8:8" ht="133.34999999999999431566" customHeight="1">
-      <x:c r="H32" s="6"/>
+      <x:c r="D32" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E32" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F32" s="10" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="G32" s="12" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H32" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
     <x:row r="33" spans="8:8" ht="133.34999999999999431566" customHeight="1">
       <x:c r="H33" s="6"/>
     </x:row>
-    <x:row r="34" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="35" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="36" ht="133.34999999999999431566" customHeight="1"/>
-    <x:row r="37" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="34" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H34" s="6"/>
+    </x:row>
+    <x:row r="35" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H35" s="6"/>
+    </x:row>
+    <x:row r="36" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H36" s="6"/>
+    </x:row>
+    <x:row r="37" spans="8:8" ht="133.34999999999999431566" customHeight="1">
+      <x:c r="H37" s="6"/>
+    </x:row>
     <x:row r="38" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="39" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="40" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="41" ht="133.34999999999999431566" customHeight="1"/>
     <x:row r="42" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="43" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="44" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="45" ht="133.34999999999999431566" customHeight="1"/>
+    <x:row r="46" ht="133.34999999999999431566" customHeight="1"/>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967292" verticalDpi="600" copies="1"/>
